--- a/parameters.xlsx
+++ b/parameters.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/moosial/bikeshare-2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{ACB7C943-7172-AE43-A2A2-B2220383AA44}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D097BD9C-198E-8C44-94E5-1B2E243D3DA7}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8680" yWindow="3680" windowWidth="28040" windowHeight="17440" activeTab="2" xr2:uid="{735E6A39-E1D8-D54C-BC60-0BA8F3062330}"/>
+    <workbookView xWindow="44860" yWindow="6720" windowWidth="28040" windowHeight="17440" activeTab="2" xr2:uid="{735E6A39-E1D8-D54C-BC60-0BA8F3062330}"/>
   </bookViews>
   <sheets>
     <sheet name="cities" sheetId="2" r:id="rId1"/>
@@ -203,7 +203,7 @@
     <t>Dec</t>
   </si>
   <si>
-    <t>all</t>
+    <t>All</t>
   </si>
 </sst>
 </file>
@@ -636,7 +636,7 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -809,7 +809,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
